--- a/VL.Research/XMLConfig/HearingScreeningArea/列表.xlsx
+++ b/VL.Research/XMLConfig/HearingScreeningArea/列表.xlsx
@@ -1,26 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Product\DHF\XMLConfig\HearingScreeningArea\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DBA6135-0139-43B9-AF44-49334A3E5E4E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1875" yWindow="2595" windowWidth="21600" windowHeight="12735" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="21960" windowHeight="12990"/>
   </bookViews>
   <sheets>
     <sheet name="列表" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913" calcOnSave="0"/>
+  <calcPr calcId="144525" calcCompleted="0" calcOnSave="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="43">
   <si>
     <t>浙江省儿童听力筛查年报表</t>
   </si>
@@ -62,6 +56,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t>0-2</t>
     </r>
     <r>
@@ -75,13 +74,18 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>其中　</t>
     </r>
     <r>
       <rPr>
         <sz val="10"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">       </t>
     </r>
@@ -96,6 +100,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t>3-6</t>
     </r>
     <r>
@@ -109,13 +118,18 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>其中</t>
     </r>
     <r>
       <rPr>
         <sz val="10"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">       </t>
     </r>
@@ -180,9 +194,21 @@
     <t>@LoopAuto_Data_childsback2</t>
   </si>
   <si>
+    <t>@LoopAuto_Data_yinersresult</t>
+  </si>
+  <si>
+    <t>@LoopAuto_Data_babysresult</t>
+  </si>
+  <si>
+    <t>@LoopAuto_Data_childsresult</t>
+  </si>
+  <si>
     <t>实际报出日期：    年    月    日                                 单位负责人（签章）：                              制表人（签章）：</t>
   </si>
   <si>
+    <t>@DataUser_name</t>
+  </si>
+  <si>
     <t>注：</t>
   </si>
   <si>
@@ -193,25 +219,19 @@
   </si>
   <si>
     <t>3、最后确诊数是指经筛查后确诊的听力异常数。</t>
-  </si>
-  <si>
-    <t>@LoopAuto_Data_yinersresult</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>@LoopAuto_Data_babysresult</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>@LoopAuto_Data_childsresult</t>
-    <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -220,12 +240,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="16"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Times New Roman"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -233,7 +271,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -242,39 +280,345 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="16"/>
+      <sz val="11"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -297,73 +641,356 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFill="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="50" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="50" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="50" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="50" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="50" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="50" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="50" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="50" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="50" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="50" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="50">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="50" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="50" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="51">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
-    <cellStyle name="常规 3" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="常规 2" xfId="49"/>
+    <cellStyle name="常规 3" xfId="50"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -621,248 +1248,248 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:Y14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="T7" sqref="T7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N16" sqref="N16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.375" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9.375" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="16384" width="9.375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="20.25" x14ac:dyDescent="0.15">
-      <c r="A1" s="10" t="s">
+    <row r="1" ht="20.25" spans="1:25">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="10"/>
-      <c r="L1" s="10"/>
-      <c r="M1" s="10"/>
-      <c r="N1" s="10"/>
-      <c r="O1" s="10"/>
-      <c r="P1" s="10"/>
-      <c r="Q1" s="10"/>
-      <c r="R1" s="10"/>
-      <c r="S1" s="10"/>
-      <c r="T1" s="10"/>
-      <c r="U1" s="2"/>
-      <c r="V1" s="2"/>
-      <c r="W1" s="2"/>
-      <c r="X1" s="2"/>
-      <c r="Y1" s="2"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+      <c r="T1" s="2"/>
+      <c r="U1" s="12"/>
+      <c r="V1" s="12"/>
+      <c r="W1" s="12"/>
+      <c r="X1" s="12"/>
+      <c r="Y1" s="12"/>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A2" s="11" t="s">
+    <row r="2" spans="1:25">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12"/>
-      <c r="K2" s="12"/>
-      <c r="L2" s="12"/>
-      <c r="M2" s="12"/>
-      <c r="N2" s="12"/>
-      <c r="O2" s="12"/>
-      <c r="P2" s="12"/>
-      <c r="Q2" s="12"/>
-      <c r="R2" s="12"/>
-      <c r="S2" s="12"/>
-      <c r="T2" s="12"/>
-      <c r="U2" s="2"/>
-      <c r="V2" s="2"/>
-      <c r="W2" s="2"/>
-      <c r="X2" s="2"/>
-      <c r="Y2" s="2"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="4"/>
+      <c r="N2" s="4"/>
+      <c r="O2" s="4"/>
+      <c r="P2" s="4"/>
+      <c r="Q2" s="4"/>
+      <c r="R2" s="4"/>
+      <c r="S2" s="4"/>
+      <c r="T2" s="4"/>
+      <c r="U2" s="12"/>
+      <c r="V2" s="12"/>
+      <c r="W2" s="12"/>
+      <c r="X2" s="12"/>
+      <c r="Y2" s="12"/>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A3" s="13" t="s">
+    <row r="3" spans="1:25">
+      <c r="A3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14"/>
-      <c r="I3" s="14" t="s">
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="J3" s="14"/>
-      <c r="K3" s="14"/>
-      <c r="L3" s="14"/>
-      <c r="M3" s="14"/>
-      <c r="N3" s="14"/>
-      <c r="O3" s="14" t="s">
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="6"/>
+      <c r="M3" s="6"/>
+      <c r="N3" s="6"/>
+      <c r="O3" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="P3" s="14"/>
-      <c r="Q3" s="14"/>
-      <c r="R3" s="14"/>
-      <c r="S3" s="14"/>
-      <c r="T3" s="14"/>
-      <c r="U3" s="3"/>
-      <c r="V3" s="3"/>
-      <c r="W3" s="3"/>
-      <c r="X3" s="3"/>
-      <c r="Y3" s="3"/>
+      <c r="P3" s="6"/>
+      <c r="Q3" s="6"/>
+      <c r="R3" s="6"/>
+      <c r="S3" s="6"/>
+      <c r="T3" s="6"/>
+      <c r="U3" s="11"/>
+      <c r="V3" s="11"/>
+      <c r="W3" s="11"/>
+      <c r="X3" s="11"/>
+      <c r="Y3" s="11"/>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A4" s="13"/>
-      <c r="B4" s="13"/>
-      <c r="C4" s="14" t="s">
+    <row r="4" spans="1:25">
+      <c r="A4" s="5"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="13" t="s">
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="13"/>
-      <c r="H4" s="13"/>
-      <c r="I4" s="13" t="s">
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="J4" s="13"/>
-      <c r="K4" s="13"/>
-      <c r="L4" s="13" t="s">
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="M4" s="13"/>
-      <c r="N4" s="13"/>
-      <c r="O4" s="13" t="s">
+      <c r="M4" s="5"/>
+      <c r="N4" s="5"/>
+      <c r="O4" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="P4" s="13"/>
-      <c r="Q4" s="13"/>
-      <c r="R4" s="13" t="s">
+      <c r="P4" s="5"/>
+      <c r="Q4" s="5"/>
+      <c r="R4" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="S4" s="13"/>
-      <c r="T4" s="13"/>
-      <c r="U4" s="3"/>
-      <c r="V4" s="3"/>
-      <c r="W4" s="3"/>
-      <c r="X4" s="3"/>
-      <c r="Y4" s="3"/>
+      <c r="S4" s="5"/>
+      <c r="T4" s="5"/>
+      <c r="U4" s="11"/>
+      <c r="V4" s="11"/>
+      <c r="W4" s="11"/>
+      <c r="X4" s="11"/>
+      <c r="Y4" s="11"/>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A5" s="13"/>
-      <c r="B5" s="13"/>
-      <c r="C5" s="15" t="s">
+    <row r="5" spans="1:25">
+      <c r="A5" s="5"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="13" t="s">
+      <c r="D5" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="15" t="s">
+      <c r="E5" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="15" t="s">
+      <c r="F5" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="G5" s="13" t="s">
+      <c r="G5" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="H5" s="15" t="s">
+      <c r="H5" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="I5" s="15" t="s">
+      <c r="I5" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="J5" s="13" t="s">
+      <c r="J5" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="K5" s="15" t="s">
+      <c r="K5" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="L5" s="15" t="s">
+      <c r="L5" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="13" t="s">
+      <c r="M5" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="N5" s="15" t="s">
+      <c r="N5" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="O5" s="15" t="s">
+      <c r="O5" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="P5" s="13" t="s">
+      <c r="P5" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="Q5" s="15" t="s">
+      <c r="Q5" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="R5" s="15" t="s">
+      <c r="R5" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="S5" s="13" t="s">
+      <c r="S5" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="T5" s="15" t="s">
+      <c r="T5" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="U5" s="3"/>
-      <c r="V5" s="3"/>
-      <c r="W5" s="3"/>
-      <c r="X5" s="3"/>
-      <c r="Y5" s="3"/>
+      <c r="U5" s="11"/>
+      <c r="V5" s="11"/>
+      <c r="W5" s="11"/>
+      <c r="X5" s="11"/>
+      <c r="Y5" s="11"/>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A6" s="13"/>
-      <c r="B6" s="13"/>
-      <c r="C6" s="15"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13"/>
-      <c r="I6" s="13"/>
-      <c r="J6" s="13"/>
-      <c r="K6" s="13"/>
-      <c r="L6" s="13"/>
-      <c r="M6" s="13"/>
-      <c r="N6" s="13"/>
-      <c r="O6" s="13"/>
-      <c r="P6" s="13"/>
-      <c r="Q6" s="13"/>
-      <c r="R6" s="13"/>
-      <c r="S6" s="13"/>
-      <c r="T6" s="13"/>
-      <c r="U6" s="3"/>
-      <c r="V6" s="3"/>
-      <c r="W6" s="3"/>
-      <c r="X6" s="3"/>
-      <c r="Y6" s="3"/>
+    <row r="6" spans="1:25">
+      <c r="A6" s="5"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="5"/>
+      <c r="N6" s="5"/>
+      <c r="O6" s="5"/>
+      <c r="P6" s="5"/>
+      <c r="Q6" s="5"/>
+      <c r="R6" s="5"/>
+      <c r="S6" s="5"/>
+      <c r="T6" s="5"/>
+      <c r="U6" s="11"/>
+      <c r="V6" s="11"/>
+      <c r="W6" s="11"/>
+      <c r="X6" s="11"/>
+      <c r="Y6" s="11"/>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:25">
       <c r="A7" s="8" t="s">
         <v>17</v>
       </c>
@@ -915,215 +1542,198 @@
         <v>33</v>
       </c>
       <c r="R7" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="S7" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="T7" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="U7" s="13"/>
+      <c r="V7" s="13"/>
+      <c r="W7" s="13"/>
+      <c r="X7" s="13"/>
+      <c r="Y7" s="13"/>
+    </row>
+    <row r="8" ht="14.25" spans="1:25">
+      <c r="A8" s="9"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="9"/>
+      <c r="L8" s="9"/>
+      <c r="M8" s="9"/>
+      <c r="N8" s="9"/>
+      <c r="O8" s="9"/>
+      <c r="P8" s="9"/>
+      <c r="Q8" s="9"/>
+      <c r="R8" s="9"/>
+      <c r="S8" s="9"/>
+      <c r="T8" s="9"/>
+      <c r="U8" s="12"/>
+      <c r="V8" s="12"/>
+      <c r="W8" s="12"/>
+      <c r="X8" s="12"/>
+      <c r="Y8" s="12"/>
+    </row>
+    <row r="9" spans="1:25">
+      <c r="A9" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="N9" s="3"/>
+      <c r="O9" s="11"/>
+      <c r="P9" s="11"/>
+      <c r="Q9" s="11"/>
+      <c r="R9" s="11"/>
+      <c r="S9" s="11"/>
+      <c r="T9" s="11"/>
+      <c r="U9" s="14"/>
+      <c r="V9" s="12"/>
+      <c r="W9" s="14"/>
+      <c r="X9" s="14"/>
+      <c r="Y9" s="14"/>
+    </row>
+    <row r="11" spans="1:25">
+      <c r="A11" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="S7" s="8" t="s">
+      <c r="B11" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="T7" s="8" t="s">
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="12"/>
+      <c r="K11" s="12"/>
+      <c r="L11" s="12"/>
+      <c r="M11" s="12"/>
+      <c r="N11" s="12"/>
+      <c r="O11" s="12"/>
+      <c r="P11" s="12"/>
+      <c r="Q11" s="12"/>
+      <c r="R11" s="12"/>
+      <c r="S11" s="12"/>
+      <c r="T11" s="12"/>
+      <c r="U11" s="12"/>
+      <c r="V11" s="12"/>
+      <c r="W11" s="12"/>
+      <c r="X11" s="12"/>
+      <c r="Y11" s="12"/>
+    </row>
+    <row r="12" spans="1:25">
+      <c r="A12" s="10"/>
+      <c r="B12" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="U7" s="7"/>
-      <c r="V7" s="7"/>
-      <c r="W7" s="7"/>
-      <c r="X7" s="7"/>
-      <c r="Y7" s="7"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="12"/>
+      <c r="K12" s="12"/>
+      <c r="L12" s="12"/>
+      <c r="M12" s="12"/>
+      <c r="N12" s="12"/>
+      <c r="O12" s="12"/>
+      <c r="P12" s="12"/>
+      <c r="Q12" s="12"/>
+      <c r="R12" s="12"/>
+      <c r="S12" s="12"/>
+      <c r="T12" s="12"/>
+      <c r="U12" s="12"/>
+      <c r="V12" s="12"/>
+      <c r="W12" s="12"/>
+      <c r="X12" s="12"/>
+      <c r="Y12" s="12"/>
     </row>
-    <row r="8" spans="1:25" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="4"/>
-      <c r="L8" s="4"/>
-      <c r="M8" s="4"/>
-      <c r="N8" s="4"/>
-      <c r="O8" s="4"/>
-      <c r="P8" s="4"/>
-      <c r="Q8" s="4"/>
-      <c r="R8" s="4"/>
-      <c r="S8" s="4"/>
-      <c r="T8" s="4"/>
-      <c r="U8" s="2"/>
-      <c r="V8" s="2"/>
-      <c r="W8" s="2"/>
-      <c r="X8" s="2"/>
-      <c r="Y8" s="2"/>
+    <row r="13" spans="1:25">
+      <c r="A13" s="10"/>
+      <c r="B13" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="10"/>
+      <c r="J13" s="12"/>
+      <c r="K13" s="12"/>
+      <c r="L13" s="12"/>
+      <c r="M13" s="12"/>
+      <c r="N13" s="12"/>
+      <c r="O13" s="12"/>
+      <c r="P13" s="12"/>
+      <c r="Q13" s="12"/>
+      <c r="R13" s="12"/>
+      <c r="S13" s="12"/>
+      <c r="T13" s="12"/>
+      <c r="U13" s="12"/>
+      <c r="V13" s="12"/>
+      <c r="W13" s="12"/>
+      <c r="X13" s="12"/>
+      <c r="Y13" s="12"/>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A9" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="B9" s="9"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
-      <c r="I9" s="9"/>
-      <c r="J9" s="9"/>
-      <c r="K9" s="9"/>
-      <c r="L9" s="9"/>
-      <c r="M9" s="9"/>
-      <c r="N9" s="9"/>
-      <c r="O9" s="9"/>
-      <c r="P9" s="9"/>
-      <c r="Q9" s="9"/>
-      <c r="R9" s="9"/>
-      <c r="S9" s="9"/>
-      <c r="T9" s="9"/>
-      <c r="U9" s="6"/>
-      <c r="V9" s="2"/>
-      <c r="W9" s="6"/>
-      <c r="X9" s="6"/>
-      <c r="Y9" s="6"/>
-    </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A11" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
-      <c r="J11" s="2"/>
-      <c r="K11" s="2"/>
-      <c r="L11" s="2"/>
-      <c r="M11" s="2"/>
-      <c r="N11" s="2"/>
-      <c r="O11" s="2"/>
-      <c r="P11" s="2"/>
-      <c r="Q11" s="2"/>
-      <c r="R11" s="2"/>
-      <c r="S11" s="2"/>
-      <c r="T11" s="2"/>
-      <c r="U11" s="2"/>
-      <c r="V11" s="2"/>
-      <c r="W11" s="2"/>
-      <c r="X11" s="2"/>
-      <c r="Y11" s="2"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A12" s="5"/>
-      <c r="B12" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
-      <c r="J12" s="2"/>
-      <c r="K12" s="2"/>
-      <c r="L12" s="2"/>
-      <c r="M12" s="2"/>
-      <c r="N12" s="2"/>
-      <c r="O12" s="2"/>
-      <c r="P12" s="2"/>
-      <c r="Q12" s="2"/>
-      <c r="R12" s="2"/>
-      <c r="S12" s="2"/>
-      <c r="T12" s="2"/>
-      <c r="U12" s="2"/>
-      <c r="V12" s="2"/>
-      <c r="W12" s="2"/>
-      <c r="X12" s="2"/>
-      <c r="Y12" s="2"/>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A13" s="5"/>
-      <c r="B13" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
-      <c r="J13" s="2"/>
-      <c r="K13" s="2"/>
-      <c r="L13" s="2"/>
-      <c r="M13" s="2"/>
-      <c r="N13" s="2"/>
-      <c r="O13" s="2"/>
-      <c r="P13" s="2"/>
-      <c r="Q13" s="2"/>
-      <c r="R13" s="2"/>
-      <c r="S13" s="2"/>
-      <c r="T13" s="2"/>
-      <c r="U13" s="2"/>
-      <c r="V13" s="2"/>
-      <c r="W13" s="2"/>
-      <c r="X13" s="2"/>
-      <c r="Y13" s="2"/>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A14" s="5"/>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="5"/>
-      <c r="J14" s="2"/>
-      <c r="K14" s="2"/>
-      <c r="L14" s="2"/>
-      <c r="M14" s="2"/>
-      <c r="N14" s="2"/>
-      <c r="O14" s="2"/>
-      <c r="P14" s="2"/>
-      <c r="Q14" s="2"/>
-      <c r="R14" s="2"/>
-      <c r="S14" s="2"/>
-      <c r="T14" s="2"/>
-      <c r="U14" s="2"/>
-      <c r="V14" s="2"/>
-      <c r="W14" s="2"/>
-      <c r="X14" s="2"/>
-      <c r="Y14" s="2"/>
+    <row r="14" spans="1:25">
+      <c r="A14" s="10"/>
+      <c r="B14" s="10"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="10"/>
+      <c r="J14" s="12"/>
+      <c r="K14" s="12"/>
+      <c r="L14" s="12"/>
+      <c r="M14" s="12"/>
+      <c r="N14" s="12"/>
+      <c r="O14" s="12"/>
+      <c r="P14" s="12"/>
+      <c r="Q14" s="12"/>
+      <c r="R14" s="12"/>
+      <c r="S14" s="12"/>
+      <c r="T14" s="12"/>
+      <c r="U14" s="12"/>
+      <c r="V14" s="12"/>
+      <c r="W14" s="12"/>
+      <c r="X14" s="12"/>
+      <c r="Y14" s="12"/>
     </row>
   </sheetData>
-  <mergeCells count="32">
-    <mergeCell ref="T5:T6"/>
-    <mergeCell ref="O5:O6"/>
-    <mergeCell ref="P5:P6"/>
-    <mergeCell ref="Q5:Q6"/>
-    <mergeCell ref="R5:R6"/>
-    <mergeCell ref="K5:K6"/>
-    <mergeCell ref="L5:L6"/>
-    <mergeCell ref="M5:M6"/>
-    <mergeCell ref="N5:N6"/>
-    <mergeCell ref="S5:S6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="J5:J6"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="A9:T9"/>
+  <mergeCells count="33">
     <mergeCell ref="A1:T1"/>
     <mergeCell ref="A2:T2"/>
-    <mergeCell ref="A3:A6"/>
-    <mergeCell ref="B3:B6"/>
     <mergeCell ref="C3:H3"/>
     <mergeCell ref="I3:N3"/>
     <mergeCell ref="O3:T3"/>
@@ -1133,11 +1743,31 @@
     <mergeCell ref="L4:N4"/>
     <mergeCell ref="O4:Q4"/>
     <mergeCell ref="R4:T4"/>
+    <mergeCell ref="A9:L9"/>
+    <mergeCell ref="M9:N9"/>
+    <mergeCell ref="A3:A6"/>
+    <mergeCell ref="B3:B6"/>
     <mergeCell ref="C5:C6"/>
     <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="K5:K6"/>
+    <mergeCell ref="L5:L6"/>
+    <mergeCell ref="M5:M6"/>
+    <mergeCell ref="N5:N6"/>
+    <mergeCell ref="O5:O6"/>
+    <mergeCell ref="P5:P6"/>
+    <mergeCell ref="Q5:Q6"/>
+    <mergeCell ref="R5:R6"/>
+    <mergeCell ref="S5:S6"/>
+    <mergeCell ref="T5:T6"/>
   </mergeCells>
-  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>